--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.3718891591942284</v>
+        <v>2.3718891425996387</v>
       </c>
       <c r="C2">
-        <v>7.6769514502096499</v>
+        <v>7.6769514486977721</v>
       </c>
       <c r="D2">
-        <v>-2.5210268247099781</v>
+        <v>-2.5210268411960812</v>
       </c>
       <c r="E2">
-        <v>6.5286180541486116</v>
+        <v>6.5286180454813785</v>
       </c>
       <c r="F2">
-        <v>-15.585772864518693</v>
+        <v>-15.585772867765094</v>
       </c>
       <c r="G2">
-        <v>11.327270484072967</v>
+        <v>11.3272704813409</v>
       </c>
       <c r="H2">
-        <v>6.6652820515853017</v>
+        <v>6.6652820392574679</v>
       </c>
       <c r="I2">
-        <v>8.2172932798173566</v>
+        <v>8.2172932752029961</v>
       </c>
       <c r="J2">
-        <v>11.809045350795849</v>
+        <v>11.809045339251204</v>
       </c>
       <c r="K2">
-        <v>8.7108315359120372</v>
+        <v>8.7108315320090952</v>
       </c>
       <c r="L2">
-        <v>14.060015820514254</v>
+        <v>14.060015807196729</v>
       </c>
       <c r="M2">
-        <v>5.8658062679508012</v>
+        <v>5.8658062544086347</v>
       </c>
       <c r="N2">
-        <v>10.058368965860828</v>
+        <v>10.058368949962675</v>
       </c>
       <c r="O2">
-        <v>8.3012347131226605</v>
+        <v>8.3012347033920957</v>
       </c>
       <c r="P2">
-        <v>5.4953741923068815</v>
+        <v>5.4953741854864164</v>
       </c>
       <c r="Q2">
-        <v>9.5066215987084028</v>
+        <v>9.5066215964385741</v>
       </c>
       <c r="R2">
-        <v>5.5808170539208861</v>
+        <v>5.5808170512609685</v>
       </c>
       <c r="S2">
-        <v>8.2069421230787469</v>
+        <v>8.2069421177953235</v>
       </c>
       <c r="T2">
-        <v>9.0341842718104015</v>
+        <v>9.0341842543471564</v>
       </c>
       <c r="U2">
-        <v>17.11878034883858</v>
+        <v>17.118780341809124</v>
       </c>
       <c r="V2">
-        <v>6.5536017736350471</v>
+        <v>6.5536017652322736</v>
       </c>
       <c r="W2">
-        <v>6.5788623137259865</v>
+        <v>6.5788623067298619</v>
       </c>
       <c r="X2">
-        <v>11.180121105095093</v>
+        <v>11.180121097437414</v>
       </c>
       <c r="Y2">
-        <v>10.27318523688003</v>
+        <v>10.273185219652921</v>
       </c>
       <c r="Z2">
-        <v>-0.57014179997215209</v>
+        <v>-0.57014181075018533</v>
       </c>
       <c r="AA2">
-        <v>12.665950817206809</v>
+        <v>12.665950807365681</v>
       </c>
       <c r="AB2">
-        <v>8.7652545816791374</v>
+        <v>8.7652545754638673</v>
       </c>
       <c r="AC2">
-        <v>11.202301304240143</v>
+        <v>11.202301300289074</v>
       </c>
       <c r="AD2">
-        <v>5.6876541257726263</v>
+        <v>5.6876541223245303</v>
       </c>
       <c r="AE2">
-        <v>-1.1085663642556089</v>
+        <v>-1.1085663696821748</v>
       </c>
       <c r="AF2">
-        <v>9.1230678076470948</v>
+        <v>9.1230678060229913</v>
       </c>
       <c r="AG2">
-        <v>9.6609991835973705</v>
+        <v>9.6609991721215529</v>
       </c>
       <c r="AH2">
-        <v>6.9055416505014664</v>
+        <v>6.905541647632206</v>
       </c>
       <c r="AI2">
-        <v>17.784099614676968</v>
+        <v>17.784099603207586</v>
       </c>
       <c r="AJ2">
-        <v>6.6767653196769707</v>
+        <v>6.6767653196180481</v>
       </c>
       <c r="AK2">
-        <v>11.141972261293761</v>
+        <v>11.141972251715867</v>
       </c>
       <c r="AL2">
-        <v>9.8397847105031264</v>
+        <v>9.8397847016363471</v>
       </c>
       <c r="AM2">
-        <v>7.8487087337233641</v>
+        <v>7.8487087219048721</v>
       </c>
       <c r="AN2">
-        <v>9.0133703792630264</v>
+        <v>9.013370369873428</v>
       </c>
       <c r="AO2">
-        <v>8.9888726562850927</v>
+        <v>8.9888726553326581</v>
       </c>
       <c r="AP2">
-        <v>8.437354529280487</v>
+        <v>8.4373545245164649</v>
       </c>
       <c r="AQ2">
-        <v>7.4874032004551854</v>
+        <v>7.4874031928494889</v>
       </c>
       <c r="AR2">
-        <v>10.156074637712637</v>
+        <v>10.156074637762243</v>
       </c>
       <c r="AS2">
-        <v>10.728390867127374</v>
+        <v>10.728390864704284</v>
       </c>
       <c r="AT2">
-        <v>12.011345499460599</v>
+        <v>12.011345492125601</v>
       </c>
       <c r="AU2">
-        <v>8.7340338688281722</v>
+        <v>8.734033866043946</v>
       </c>
       <c r="AV2">
-        <v>3.9234761432118197</v>
+        <v>3.923476134160607</v>
       </c>
       <c r="AW2">
-        <v>9.7520839525364806</v>
+        <v>9.7520839501796939</v>
       </c>
       <c r="AX2">
-        <v>9.5773219225143436</v>
+        <v>9.5773219159369791</v>
       </c>
       <c r="AY2">
-        <v>13.148435350603634</v>
+        <v>13.148435343673556</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.6530701336142801</v>
+        <v>5.6530701237532428</v>
       </c>
       <c r="C3">
-        <v>8.3784499554958902</v>
+        <v>8.378449943133468</v>
       </c>
       <c r="D3">
-        <v>15.545839569927683</v>
+        <v>15.545839548132957</v>
       </c>
       <c r="E3">
-        <v>6.4549220673614736</v>
+        <v>6.4549220525626918</v>
       </c>
       <c r="F3">
-        <v>4.0970409174672353</v>
+        <v>4.0970409151809006</v>
       </c>
       <c r="G3">
-        <v>9.6046777799708867</v>
+        <v>9.6046777703263579</v>
       </c>
       <c r="H3">
-        <v>10.96449878026919</v>
+        <v>10.964498763391184</v>
       </c>
       <c r="I3">
-        <v>8.4958332121986579</v>
+        <v>8.4958332096671381</v>
       </c>
       <c r="J3">
-        <v>11.367110280421864</v>
+        <v>11.367110270913184</v>
       </c>
       <c r="K3">
-        <v>11.976765104161036</v>
+        <v>11.976765091716993</v>
       </c>
       <c r="L3">
-        <v>24.830595770493826</v>
+        <v>24.830595757896361</v>
       </c>
       <c r="M3">
-        <v>6.3351919490261848</v>
+        <v>6.3352225710009993</v>
       </c>
       <c r="N3">
-        <v>8.3612260596666221</v>
+        <v>8.3612260487205443</v>
       </c>
       <c r="O3">
-        <v>5.7196126018540401</v>
+        <v>5.7196125950586341</v>
       </c>
       <c r="P3">
-        <v>9.7008140160623046</v>
+        <v>9.700814006742613</v>
       </c>
       <c r="Q3">
-        <v>5.2050517170759436</v>
+        <v>5.205051710405308</v>
       </c>
       <c r="R3">
-        <v>7.0255771117279586</v>
+        <v>7.0255771062629178</v>
       </c>
       <c r="S3">
-        <v>7.2394841552743507</v>
+        <v>7.2394841502348939</v>
       </c>
       <c r="T3">
-        <v>9.0333453053476074</v>
+        <v>9.0333452968692249</v>
       </c>
       <c r="U3">
-        <v>9.8465405010430676</v>
+        <v>9.8465404847919675</v>
       </c>
       <c r="V3">
-        <v>15.243655376630519</v>
+        <v>15.243655368686445</v>
       </c>
       <c r="W3">
-        <v>8.4692082930152228</v>
+        <v>8.4692082847276993</v>
       </c>
       <c r="X3">
-        <v>8.0222807961996612</v>
+        <v>8.0222807916558647</v>
       </c>
       <c r="Y3">
-        <v>7.4988172268800319</v>
+        <v>7.4988172213170348</v>
       </c>
       <c r="Z3">
-        <v>7.2604359517033172</v>
+        <v>7.2604359439334232</v>
       </c>
       <c r="AA3">
-        <v>10.279313004386696</v>
+        <v>10.279312997127994</v>
       </c>
       <c r="AB3">
-        <v>8.1310428695928927</v>
+        <v>8.1310428595558371</v>
       </c>
       <c r="AC3">
-        <v>14.906790185845145</v>
+        <v>14.906790176797131</v>
       </c>
       <c r="AD3">
-        <v>7.8805126029249939</v>
+        <v>7.8805125987270879</v>
       </c>
       <c r="AE3">
-        <v>9.9081975579396193</v>
+        <v>9.908197556034235</v>
       </c>
       <c r="AF3">
-        <v>11.257889790140933</v>
+        <v>11.257889783207361</v>
       </c>
       <c r="AG3">
-        <v>14.569662149410579</v>
+        <v>14.569662138909207</v>
       </c>
       <c r="AH3">
-        <v>11.98537751729309</v>
+        <v>11.985377510375464</v>
       </c>
       <c r="AI3">
-        <v>11.473327881262684</v>
+        <v>11.473327872116348</v>
       </c>
       <c r="AJ3">
-        <v>13.870997794656256</v>
+        <v>13.870997778025016</v>
       </c>
       <c r="AK3">
-        <v>23.497424587556146</v>
+        <v>23.497424574881151</v>
       </c>
       <c r="AL3">
-        <v>11.080448721836552</v>
+        <v>11.080448714228265</v>
       </c>
       <c r="AM3">
-        <v>6.4078907162364835</v>
+        <v>6.4078907025418115</v>
       </c>
       <c r="AN3">
-        <v>5.3717712514042635</v>
+        <v>5.3717712470855332</v>
       </c>
       <c r="AO3">
-        <v>10.874363396608031</v>
+        <v>10.874363382693964</v>
       </c>
       <c r="AP3">
-        <v>7.4362244399466109</v>
+        <v>7.4362244346369515</v>
       </c>
       <c r="AQ3">
-        <v>8.2443299329791309</v>
+        <v>8.2443299306841418</v>
       </c>
       <c r="AR3">
-        <v>10.824902805171867</v>
+        <v>10.824902800022061</v>
       </c>
       <c r="AS3">
-        <v>8.4623756345527745</v>
+        <v>8.4623756278241995</v>
       </c>
       <c r="AT3">
-        <v>8.4403186259490486</v>
+        <v>8.4403186219673429</v>
       </c>
       <c r="AU3">
-        <v>10.023609209303894</v>
+        <v>10.023609199518694</v>
       </c>
       <c r="AV3">
-        <v>9.1415987806504138</v>
+        <v>9.141598770394225</v>
       </c>
       <c r="AW3">
-        <v>8.6815521223358427</v>
+        <v>8.6815521174187431</v>
       </c>
       <c r="AX3">
-        <v>9.0294566991396525</v>
+        <v>9.0294566900017301</v>
       </c>
       <c r="AY3">
-        <v>8.7141381994114706</v>
+        <v>8.7141381900962838</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>2.3718891425996387</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>7.6769514486977721</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-2.5210268411960812</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>6.5286180454813785</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-15.585772867765094</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>11.3272704813409</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>6.6652820392574679</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>8.2172932752029961</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>11.809045339251204</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>8.7108315320090952</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>14.060015807196729</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>5.8658062544086347</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>10.058368949962675</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>8.3012347033920957</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>5.4953741854864164</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>9.5066215964385741</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>5.5808170512609685</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>8.2069421177953235</v>
+        <v>8.2069554442171953</v>
       </c>
       <c r="T2">
         <v>9.0341842543471564</v>
@@ -576,147 +465,144 @@
         <v>6.5536017652322736</v>
       </c>
       <c r="W2">
-        <v>6.5788623067298619</v>
+        <v>6.5788748383989333</v>
       </c>
       <c r="X2">
-        <v>11.180121097437414</v>
+        <v>11.180105519022101</v>
       </c>
       <c r="Y2">
         <v>10.273185219652921</v>
       </c>
       <c r="Z2">
-        <v>-0.57014181075018533</v>
+        <v>-0.57015648720054057</v>
       </c>
       <c r="AA2">
-        <v>12.665950807365681</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>8.7652545754638673</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>11.202301300289074</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>5.6876541223245303</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>-1.1085663696821748</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>9.1230678060229913</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>9.6609991721215529</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>6.905541647632206</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>17.784099603207586</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>6.6767653196180481</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>11.141972251715867</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>9.8397847016363471</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>7.8487087219048721</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>9.013370369873428</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>8.9888726553326581</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>8.4373545245164649</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>7.4874031928494889</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>10.156074637762243</v>
+        <v>10.15606092754494</v>
       </c>
       <c r="AS2">
         <v>10.728390864704284</v>
       </c>
       <c r="AT2">
-        <v>12.011345492125601</v>
+        <v>12.011363156351006</v>
       </c>
       <c r="AU2">
-        <v>8.734033866043946</v>
+        <v>8.7340205672487947</v>
       </c>
       <c r="AV2">
-        <v>3.923476134160607</v>
+        <v>3.9234885006267697</v>
       </c>
       <c r="AW2">
-        <v>9.7520839501796939</v>
+        <v>9.7520686712822542</v>
       </c>
       <c r="AX2">
-        <v>9.5773219159369791</v>
+        <v>9.5773060864200996</v>
       </c>
       <c r="AY2">
-        <v>13.148435343673556</v>
+        <v>13.148417912189913</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>5.6530701237532428</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>8.378449943133468</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>15.545839548132957</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>6.4549220525626918</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>4.0970409151809006</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>9.6046777703263579</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>10.964498763391184</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>8.4958332096671381</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>11.367110270913184</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>11.976765091716993</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>24.830595757896361</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>6.3352225710009993</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>8.3612260487205443</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>5.7196125950586341</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>9.700814006742613</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>5.205051710405308</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>7.0255771062629178</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>7.2394841502348939</v>
@@ -728,94 +614,94 @@
         <v>9.8465404847919675</v>
       </c>
       <c r="V3">
-        <v>15.243655368686445</v>
+        <v>15.243640748140258</v>
       </c>
       <c r="W3">
-        <v>8.4692082847276993</v>
+        <v>8.4691933419407803</v>
       </c>
       <c r="X3">
-        <v>8.0222807916558647</v>
+        <v>8.0222952999302759</v>
       </c>
       <c r="Y3">
-        <v>7.4988172213170348</v>
+        <v>20.996657041520344</v>
       </c>
       <c r="Z3">
-        <v>7.2604359439334232</v>
+        <v>9.7252757012376332</v>
       </c>
       <c r="AA3">
-        <v>10.279312997127994</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>8.1310428595558371</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>14.906790176797131</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>7.8805125987270879</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>9.908197556034235</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>11.257889783207361</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>14.569662138909207</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>11.985377510375464</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>11.473327872116348</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>13.870997778025016</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>23.497424574881151</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>11.080448714228265</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>6.4078907025418115</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>5.3717712470855332</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>10.874363382693964</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>7.4362244346369515</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>8.2443299306841418</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>10.824902800022061</v>
+        <v>10.824916573375059</v>
       </c>
       <c r="AS3">
-        <v>8.4623756278241995</v>
+        <v>8.4623613524372807</v>
       </c>
       <c r="AT3">
         <v>8.4403186219673429</v>
       </c>
       <c r="AU3">
-        <v>10.023609199518694</v>
+        <v>10.023595681432466</v>
       </c>
       <c r="AV3">
-        <v>9.141598770394225</v>
+        <v>9.141583519530684</v>
       </c>
       <c r="AW3">
         <v>8.6815521174187431</v>
       </c>
       <c r="AX3">
-        <v>9.0294566900017301</v>
+        <v>11.056672508810667</v>
       </c>
       <c r="AY3">
-        <v>8.7141381900962838</v>
+        <v>31.933102865980935</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.3719023108884212</v>
+        <v>8.3012195145644281</v>
       </c>
       <c r="C2">
-        <v>10.512895304143514</v>
+        <v>5.5808170512609685</v>
       </c>
       <c r="D2">
-        <v>-2.5210433387661753</v>
+        <v>9.013385994064695</v>
       </c>
       <c r="E2">
-        <v>6.5286323846676293</v>
+        <v>7.4874158363080605</v>
       </c>
       <c r="F2">
         <v>-15.585772864518693</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.6530701336142801</v>
+        <v>5.7196125950586341</v>
       </c>
       <c r="C3">
-        <v>12.110270998656727</v>
+        <v>7.025589783105973</v>
       </c>
       <c r="D3">
-        <v>15.545860002442499</v>
+        <v>5.3717862007717372</v>
       </c>
       <c r="E3">
-        <v>6.4549073822892709</v>
+        <v>8.3214925567711493</v>
       </c>
       <c r="F3">
         <v>4.0970409174672353</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.3719023108884212</v>
+        <v>2.3155599477277584</v>
       </c>
       <c r="C2">
-        <v>10.512895304143514</v>
+        <v>8.3012195145644281</v>
       </c>
       <c r="D2">
-        <v>-2.5210433387661753</v>
+        <v>9.609498529532841</v>
       </c>
       <c r="E2">
-        <v>6.5286323846676293</v>
+        <v>9.013385994064695</v>
       </c>
       <c r="F2">
         <v>-15.585772864518693</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5.6530701336142801</v>
+        <v>2.3277528707258512</v>
       </c>
       <c r="C3">
-        <v>12.110270998656727</v>
+        <v>5.7196125950586341</v>
       </c>
       <c r="D3">
-        <v>15.545860002442499</v>
+        <v>13.251099650155393</v>
       </c>
       <c r="E3">
-        <v>6.4549073822892709</v>
+        <v>5.3717862007717372</v>
       </c>
       <c r="F3">
         <v>4.0970409174672353</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_SOL_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_SOL_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>2.3719022942938297</v>
+      </c>
+      <c r="C2">
+        <v>10.512895302591817</v>
+      </c>
+      <c r="D2">
+        <v>-2.5210433552522749</v>
+      </c>
+      <c r="E2">
+        <v>6.5286323760003926</v>
+      </c>
+      <c r="F2">
+        <v>-15.585772867765094</v>
+      </c>
+      <c r="G2">
+        <v>11.327285621697092</v>
+      </c>
+      <c r="H2">
+        <v>6.6652820392574679</v>
+      </c>
+      <c r="I2">
+        <v>8.2172802353843668</v>
+      </c>
+      <c r="J2">
+        <v>11.809062991209558</v>
+      </c>
+      <c r="K2">
+        <v>19.72885041194445</v>
+      </c>
+      <c r="L2">
+        <v>14.060035058266568</v>
+      </c>
+      <c r="M2">
+        <v>5.8658062544086347</v>
+      </c>
+      <c r="N2">
         <v>2.3155599477277584</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>8.3012195145644281</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>5.4953741854864164</v>
+      </c>
+      <c r="Q2">
+        <v>19.655693372887377</v>
+      </c>
+      <c r="R2">
+        <v>5.5808170512609685</v>
+      </c>
+      <c r="S2">
+        <v>8.2069554442171953</v>
+      </c>
+      <c r="T2">
+        <v>9.0341842543471564</v>
+      </c>
+      <c r="U2">
+        <v>17.118780341809124</v>
+      </c>
+      <c r="V2">
+        <v>6.5536017652322736</v>
+      </c>
+      <c r="W2">
+        <v>6.5788748383989333</v>
+      </c>
+      <c r="X2">
+        <v>11.180105519022101</v>
+      </c>
+      <c r="Y2">
+        <v>10.273185219652921</v>
+      </c>
+      <c r="Z2">
+        <v>-0.57015648720054057</v>
+      </c>
+      <c r="AA2">
+        <v>12.665965623232514</v>
+      </c>
+      <c r="AB2">
+        <v>4.7286874197538662</v>
+      </c>
+      <c r="AC2">
+        <v>11.202282574607727</v>
+      </c>
+      <c r="AD2">
+        <v>5.6876400438529249</v>
+      </c>
+      <c r="AE2">
+        <v>-1.1085663696821748</v>
+      </c>
+      <c r="AF2">
+        <v>9.123053218362374</v>
+      </c>
+      <c r="AG2">
+        <v>9.6610166656845209</v>
+      </c>
+      <c r="AH2">
+        <v>6.9055287798044747</v>
+      </c>
+      <c r="AI2">
+        <v>17.784099603207586</v>
+      </c>
+      <c r="AJ2">
+        <v>7.5248310896438326</v>
+      </c>
+      <c r="AK2">
+        <v>11.141972251715867</v>
+      </c>
+      <c r="AL2">
+        <v>9.839770914778688</v>
+      </c>
+      <c r="AM2">
         <v>9.609498529532841</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>9.013385994064695</v>
       </c>
-      <c r="F2">
-        <v>-15.585772864518693</v>
-      </c>
-      <c r="G2">
-        <v>11.327285624429159</v>
-      </c>
-      <c r="H2">
-        <v>6.6652820515853017</v>
-      </c>
-      <c r="I2">
-        <v>8.2172802399987273</v>
-      </c>
-      <c r="J2">
-        <v>11.809063002754206</v>
-      </c>
-      <c r="K2">
-        <v>19.728850416242963</v>
-      </c>
-      <c r="L2">
-        <v>14.060035071584096</v>
-      </c>
-      <c r="M2">
-        <v>5.8658062679508012</v>
-      </c>
-      <c r="N2">
-        <v>2.3155599625074448</v>
-      </c>
-      <c r="O2">
-        <v>8.3012195242949929</v>
-      </c>
-      <c r="P2">
-        <v>5.4953741923068815</v>
-      </c>
-      <c r="Q2">
-        <v>19.655693375367573</v>
-      </c>
-      <c r="R2">
-        <v>5.5808170539208861</v>
-      </c>
-      <c r="S2">
-        <v>8.2069554495006205</v>
-      </c>
-      <c r="T2">
-        <v>9.0341842718104015</v>
-      </c>
-      <c r="U2">
-        <v>17.11878034883858</v>
-      </c>
-      <c r="V2">
-        <v>6.5536017736350471</v>
-      </c>
-      <c r="W2">
-        <v>6.5788748453950578</v>
-      </c>
-      <c r="X2">
-        <v>11.18010552667978</v>
-      </c>
-      <c r="Y2">
-        <v>10.27318523688003</v>
-      </c>
-      <c r="Z2">
-        <v>-0.57015647642250888</v>
-      </c>
-      <c r="AA2">
-        <v>12.665965633073641</v>
-      </c>
-      <c r="AB2">
-        <v>4.7286874257384701</v>
-      </c>
-      <c r="AC2">
-        <v>11.202282578558796</v>
-      </c>
-      <c r="AD2">
-        <v>5.68764004730102</v>
-      </c>
-      <c r="AE2">
-        <v>-1.1085663642556089</v>
-      </c>
-      <c r="AF2">
-        <v>9.1230532199864776</v>
-      </c>
-      <c r="AG2">
-        <v>9.6610166771603385</v>
-      </c>
-      <c r="AH2">
-        <v>6.905528782673735</v>
-      </c>
-      <c r="AI2">
-        <v>17.784099614676968</v>
-      </c>
-      <c r="AJ2">
-        <v>7.5248310897032251</v>
-      </c>
-      <c r="AK2">
-        <v>11.141972261293761</v>
-      </c>
-      <c r="AL2">
-        <v>9.8397709236454656</v>
-      </c>
-      <c r="AM2">
-        <v>9.6094985415442871</v>
-      </c>
-      <c r="AN2">
-        <v>9.0133860034542952</v>
-      </c>
       <c r="AO2">
-        <v>8.9888588008124728</v>
+        <v>8.9888587998600382</v>
       </c>
       <c r="AP2">
-        <v>8.437354529280487</v>
+        <v>8.4373545245164649</v>
       </c>
       <c r="AQ2">
-        <v>7.487415843913757</v>
+        <v>7.4874158363080605</v>
       </c>
       <c r="AR2">
-        <v>10.156060927495334</v>
+        <v>10.15606092754494</v>
       </c>
       <c r="AS2">
-        <v>10.728390867127374</v>
+        <v>10.728390864704284</v>
       </c>
       <c r="AT2">
-        <v>12.011363163686006</v>
+        <v>12.011363156351006</v>
       </c>
       <c r="AU2">
-        <v>8.7340205700330209</v>
+        <v>8.7340205672487947</v>
       </c>
       <c r="AV2">
-        <v>3.9234885096779837</v>
+        <v>3.9234885006267697</v>
       </c>
       <c r="AW2">
-        <v>9.752068673639041</v>
+        <v>9.7520686712822542</v>
       </c>
       <c r="AX2">
-        <v>9.577306092997464</v>
+        <v>9.5773060864200996</v>
       </c>
       <c r="AY2">
-        <v>13.148417919119987</v>
+        <v>13.148417912189913</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>5.6530701237532428</v>
+      </c>
+      <c r="C3">
+        <v>12.110270985868627</v>
+      </c>
+      <c r="D3">
+        <v>15.545859980647769</v>
+      </c>
+      <c r="E3">
+        <v>6.4549073674904918</v>
+      </c>
+      <c r="F3">
+        <v>4.0970409151809006</v>
+      </c>
+      <c r="G3">
+        <v>9.6046627179485018</v>
+      </c>
+      <c r="H3">
+        <v>10.96448054853345</v>
+      </c>
+      <c r="I3">
+        <v>8.4958205820837733</v>
+      </c>
+      <c r="J3">
+        <v>18.507422364170758</v>
+      </c>
+      <c r="K3">
+        <v>11.976765091716993</v>
+      </c>
+      <c r="L3">
+        <v>24.830595757896361</v>
+      </c>
+      <c r="M3">
+        <v>6.3352352539899046</v>
+      </c>
+      <c r="N3">
         <v>2.3277528707258512</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>5.7196125950586341</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>9.700814006742613</v>
+      </c>
+      <c r="Q3">
+        <v>5.205040217596169</v>
+      </c>
+      <c r="R3">
+        <v>7.025589783105973</v>
+      </c>
+      <c r="S3">
+        <v>7.2394841502348939</v>
+      </c>
+      <c r="T3">
+        <v>9.0333452968692249</v>
+      </c>
+      <c r="U3">
+        <v>9.8465404847919675</v>
+      </c>
+      <c r="V3">
+        <v>15.243640748140258</v>
+      </c>
+      <c r="W3">
+        <v>8.4691933419407803</v>
+      </c>
+      <c r="X3">
+        <v>8.0222952999302759</v>
+      </c>
+      <c r="Y3">
+        <v>20.996657041520344</v>
+      </c>
+      <c r="Z3">
+        <v>9.7252757012376332</v>
+      </c>
+      <c r="AA3">
+        <v>10.279299200919221</v>
+      </c>
+      <c r="AB3">
+        <v>8.3505622633492447</v>
+      </c>
+      <c r="AC3">
+        <v>14.906810206135972</v>
+      </c>
+      <c r="AD3">
+        <v>7.8804971543131668</v>
+      </c>
+      <c r="AE3">
+        <v>9.9081818305034162</v>
+      </c>
+      <c r="AF3">
+        <v>11.257889783207361</v>
+      </c>
+      <c r="AG3">
+        <v>14.569662138909207</v>
+      </c>
+      <c r="AH3">
+        <v>11.972849668350014</v>
+      </c>
+      <c r="AI3">
+        <v>13.034273897981342</v>
+      </c>
+      <c r="AJ3">
+        <v>13.870997778025016</v>
+      </c>
+      <c r="AK3">
+        <v>23.497445865533962</v>
+      </c>
+      <c r="AL3">
+        <v>11.080448714228265</v>
+      </c>
+      <c r="AM3">
         <v>13.251099650155393</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>5.3717862007717372</v>
       </c>
-      <c r="F3">
-        <v>4.0970409174672353</v>
-      </c>
-      <c r="G3">
-        <v>9.604662727593027</v>
-      </c>
-      <c r="H3">
-        <v>10.964480565411455</v>
-      </c>
-      <c r="I3">
-        <v>8.4958205846152932</v>
-      </c>
-      <c r="J3">
-        <v>18.507422374289085</v>
-      </c>
-      <c r="K3">
-        <v>11.976765104161036</v>
-      </c>
-      <c r="L3">
-        <v>24.830595770493826</v>
-      </c>
-      <c r="M3">
-        <v>6.3352046320114379</v>
-      </c>
-      <c r="N3">
-        <v>2.3277528810624606</v>
-      </c>
-      <c r="O3">
-        <v>5.7196126018540401</v>
-      </c>
-      <c r="P3">
-        <v>9.7008140160623046</v>
-      </c>
-      <c r="Q3">
-        <v>5.2050402242668037</v>
-      </c>
-      <c r="R3">
-        <v>7.0255897885710157</v>
-      </c>
-      <c r="S3">
-        <v>7.2394841552743507</v>
-      </c>
-      <c r="T3">
-        <v>9.0333453053476074</v>
-      </c>
-      <c r="U3">
-        <v>9.8465405010430676</v>
-      </c>
-      <c r="V3">
-        <v>15.243640756084332</v>
-      </c>
-      <c r="W3">
-        <v>8.4691933502283039</v>
-      </c>
-      <c r="X3">
-        <v>8.0222953044740724</v>
-      </c>
-      <c r="Y3">
-        <v>20.996657047781849</v>
-      </c>
-      <c r="Z3">
-        <v>9.7252757091860786</v>
-      </c>
-      <c r="AA3">
-        <v>10.279299208177923</v>
-      </c>
-      <c r="AB3">
-        <v>8.3505622734066751</v>
-      </c>
-      <c r="AC3">
-        <v>14.906810215183992</v>
-      </c>
-      <c r="AD3">
-        <v>7.880497158511071</v>
-      </c>
-      <c r="AE3">
-        <v>9.9081818324087987</v>
-      </c>
-      <c r="AF3">
-        <v>11.257889790140933</v>
-      </c>
-      <c r="AG3">
-        <v>14.569662149410579</v>
-      </c>
-      <c r="AH3">
-        <v>11.972849672088042</v>
-      </c>
-      <c r="AI3">
-        <v>13.03427390725575</v>
-      </c>
-      <c r="AJ3">
-        <v>13.870997794656256</v>
-      </c>
-      <c r="AK3">
-        <v>23.497445878208961</v>
-      </c>
-      <c r="AL3">
-        <v>11.080448721836552</v>
-      </c>
-      <c r="AM3">
-        <v>13.251099664730784</v>
-      </c>
-      <c r="AN3">
-        <v>5.3717862050904692</v>
-      </c>
       <c r="AO3">
-        <v>10.874377661852336</v>
+        <v>10.874377647938269</v>
       </c>
       <c r="AP3">
-        <v>7.4362123848951693</v>
+        <v>7.4362123795855091</v>
       </c>
       <c r="AQ3">
-        <v>8.3214925588808324</v>
+        <v>8.3214925567711493</v>
       </c>
       <c r="AR3">
-        <v>10.824916578524865</v>
+        <v>10.824916573375059</v>
       </c>
       <c r="AS3">
-        <v>8.462361359165854</v>
+        <v>8.4623613524372807</v>
       </c>
       <c r="AT3">
-        <v>8.4403186259490486</v>
+        <v>8.4403186219673429</v>
       </c>
       <c r="AU3">
-        <v>10.023595691217665</v>
+        <v>10.023595681432466</v>
       </c>
       <c r="AV3">
-        <v>9.1415835297868711</v>
+        <v>9.141583519530684</v>
       </c>
       <c r="AW3">
-        <v>8.6815521223358427</v>
+        <v>8.6815521174187431</v>
       </c>
       <c r="AX3">
-        <v>11.056672518118495</v>
+        <v>11.056672508810667</v>
       </c>
       <c r="AY3">
-        <v>31.933102877285641</v>
+        <v>31.933102865980935</v>
       </c>
     </row>
   </sheetData>
